--- a/data/a_rcv.xlsx
+++ b/data/a_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8551873890802797</v>
+        <v>0.8530708001675743</v>
       </c>
       <c r="D2">
-        <v>0.8433683683683684</v>
+        <v>0.01961582804224883</v>
       </c>
       <c r="E2">
-        <v>0.8332122559920929</v>
+        <v>0.8482349696635409</v>
       </c>
       <c r="F2">
-        <v>0.8217054263565892</v>
+        <v>0.02792517416860756</v>
       </c>
       <c r="G2">
-        <v>0.8329333948623289</v>
+        <v>0.8367845370092898</v>
+      </c>
+      <c r="H2">
+        <v>0.02967221244273211</v>
+      </c>
+      <c r="I2">
+        <v>0.8304869186046512</v>
+      </c>
+      <c r="J2">
+        <v>0.05196904854839265</v>
+      </c>
+      <c r="K2">
+        <v>0.8348690991548133</v>
+      </c>
+      <c r="L2">
+        <v>0.04514654158089394</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8228708633469047</v>
+        <v>0.8362589023879347</v>
       </c>
       <c r="D3">
-        <v>0.8170443170443169</v>
+        <v>0.01882206094725105</v>
       </c>
       <c r="E3">
-        <v>0.8121102050901902</v>
+        <v>0.8224857510571797</v>
       </c>
       <c r="F3">
-        <v>0.8046511627906977</v>
+        <v>0.03228151947333432</v>
       </c>
       <c r="G3">
-        <v>0.8299082192483207</v>
+        <v>0.8212466287084206</v>
+      </c>
+      <c r="H3">
+        <v>0.0279470351565709</v>
+      </c>
+      <c r="I3">
+        <v>0.8079457364341085</v>
+      </c>
+      <c r="J3">
+        <v>0.05127120857689344</v>
+      </c>
+      <c r="K3">
+        <v>0.8206967635539065</v>
+      </c>
+      <c r="L3">
+        <v>0.0441683389691347</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8765215575738594</v>
+        <v>0.8886761625471303</v>
       </c>
       <c r="D4">
-        <v>0.8885931385931386</v>
+        <v>0.02688024809305695</v>
       </c>
       <c r="E4">
-        <v>0.8944353842352359</v>
+        <v>0.9044447508733224</v>
       </c>
       <c r="F4">
-        <v>0.8922480620155039</v>
+        <v>0.02096313643083356</v>
       </c>
       <c r="G4">
-        <v>0.8784853612264779</v>
+        <v>0.8961192688043151</v>
+      </c>
+      <c r="H4">
+        <v>0.01376519663223573</v>
+      </c>
+      <c r="I4">
+        <v>0.8958454457364342</v>
+      </c>
+      <c r="J4">
+        <v>0.02440718051138728</v>
+      </c>
+      <c r="K4">
+        <v>0.883395176252319</v>
+      </c>
+      <c r="L4">
+        <v>0.04904054332401061</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7834408602150538</v>
+        <v>0.7935860913280268</v>
       </c>
       <c r="D5">
-        <v>0.7893370643370643</v>
+        <v>0.03523876775268898</v>
       </c>
       <c r="E5">
-        <v>0.7902643933778107</v>
+        <v>0.7947049089906233</v>
       </c>
       <c r="F5">
-        <v>0.7837209302325581</v>
+        <v>0.0282916357251466</v>
       </c>
       <c r="G5">
-        <v>0.7894734143465107</v>
+        <v>0.7851613225452002</v>
+      </c>
+      <c r="H5">
+        <v>0.01676397973977825</v>
+      </c>
+      <c r="I5">
+        <v>0.7745881782945736</v>
+      </c>
+      <c r="J5">
+        <v>0.04043370704925065</v>
+      </c>
+      <c r="K5">
+        <v>0.7710265924551639</v>
+      </c>
+      <c r="L5">
+        <v>0.04612264472018746</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8804092285207223</v>
+        <v>0.860192710515291</v>
       </c>
       <c r="D6">
-        <v>0.8750932750932752</v>
+        <v>0.02086526908164362</v>
       </c>
       <c r="E6">
-        <v>0.8712132443785521</v>
+        <v>0.8523211987497701</v>
       </c>
       <c r="F6">
-        <v>0.8658914728682172</v>
+        <v>0.03396143598093248</v>
       </c>
       <c r="G6">
-        <v>0.8663641491052658</v>
+        <v>0.8424483068624513</v>
+      </c>
+      <c r="H6">
+        <v>0.02763488898733027</v>
+      </c>
+      <c r="I6">
+        <v>0.8320494186046512</v>
+      </c>
+      <c r="J6">
+        <v>0.04656977052918741</v>
+      </c>
+      <c r="K6">
+        <v>0.8277983920841063</v>
+      </c>
+      <c r="L6">
+        <v>0.04504070379367365</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8325775133103663</v>
+        <v>0.8453121072475911</v>
       </c>
       <c r="D7">
-        <v>0.8129811629811631</v>
+        <v>0.01901348060213343</v>
       </c>
       <c r="E7">
-        <v>0.8233975784531753</v>
+        <v>0.8346938775510203</v>
       </c>
       <c r="F7">
-        <v>0.8046511627906977</v>
+        <v>0.04349618185646725</v>
       </c>
       <c r="G7">
-        <v>0.8046403117469106</v>
+        <v>0.8290130856058336</v>
+      </c>
+      <c r="H7">
+        <v>0.03202015374506993</v>
+      </c>
+      <c r="I7">
+        <v>0.8453064437984497</v>
+      </c>
+      <c r="J7">
+        <v>0.04199537190734103</v>
+      </c>
+      <c r="K7">
+        <v>0.8561224489795919</v>
+      </c>
+      <c r="L7">
+        <v>0.04245767616234759</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.875239586595678</v>
+        <v>0.8795978215333055</v>
       </c>
       <c r="D8">
-        <v>0.8778187278187278</v>
+        <v>0.01907669610893491</v>
       </c>
       <c r="E8">
-        <v>0.8656041512231282</v>
+        <v>0.8760250045964332</v>
       </c>
       <c r="F8">
-        <v>0.8612403100775193</v>
+        <v>0.02338973772457094</v>
       </c>
       <c r="G8">
-        <v>0.8582679587755729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8616473535859693</v>
-      </c>
-      <c r="D9">
-        <v>0.8683569933569935</v>
-      </c>
-      <c r="E9">
-        <v>0.8648752162095379</v>
-      </c>
-      <c r="F9">
-        <v>0.8627906976744187</v>
-      </c>
-      <c r="G9">
-        <v>0.8481464390093831</v>
+        <v>0.8820197782439317</v>
+      </c>
+      <c r="H8">
+        <v>0.03317021991192351</v>
+      </c>
+      <c r="I8">
+        <v>0.8841872577519381</v>
+      </c>
+      <c r="J8">
+        <v>0.02914437809416581</v>
+      </c>
+      <c r="K8">
+        <v>0.8662956091527519</v>
+      </c>
+      <c r="L8">
+        <v>0.03774202519599633</v>
       </c>
     </row>
   </sheetData>
